--- a/app/scripts/lectures/Profs.xlsx
+++ b/app/scripts/lectures/Profs.xlsx
@@ -76,24 +76,24 @@
     <row r="2" spans="1:2" customHeight="0">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>CD222</t>
+          <t>GEN0801</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Carlos Langworth,Dr. Wendy Stokes</t>
+          <t>Percival Greenholt,Prof. Virgie Braun II,Marcus Hegmann,Miss Edna Schuppe</t>
         </is>
       </c>
     </row>
     <row r="3" spans="1:2" customHeight="0">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>GEN0801</t>
+          <t>GEN0802</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Carlos Langworth</t>
+          <t>Cortney Heller,Jayde Predovic I</t>
         </is>
       </c>
     </row>
@@ -105,31 +105,319 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Carlos Langworth</t>
+          <t>Mireya Price,Theron Larson</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:2" customHeight="0">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>GEN0806</t>
+          <t>GEN0804</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Carlos Langworth</t>
+          <t>Mireya Price,Theron Larson</t>
         </is>
       </c>
     </row>
     <row r="6" spans="1:2" customHeight="0">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>CIE4801</t>
+          <t>MEC0805</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Carlos Langworth</t>
+          <t>Adah Hyatt,Miss Myriam Huel</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:2" customHeight="0">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>GEN0806</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Cortney Heller,Jayde Predovic I</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:2" customHeight="0">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>GEN0807</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Cortney Heller,Jayde Predovic I</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:2" customHeight="0">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>MEC0808</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Adah Hyatt,Miss Myriam Huel</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:2" customHeight="0">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>GEN0809</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Percival Greenholt,Marcus Hegmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:2" customHeight="0">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>GEN0810</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Danny Prohaska,Carroll Hirthe DVM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:2" customHeight="0">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>MEC0811</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Danny Prohaska,Carroll Hirthe DVM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:2" customHeight="0">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>GEN1801</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Adah Hyatt,Miss Myriam Huel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:2" customHeight="0">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>GEN1802</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Prof. Virgie Braun II,Miss Edna Schuppe</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:2" customHeight="0">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>CIE1803</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Lexi Cassin,Araceli Hand</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:2" customHeight="0">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>POW1804</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Danny Prohaska,Carroll Hirthe DVM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:2" customHeight="0">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>GEN1805</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Prof. Virgie Braun II,Miss Edna Schuppe</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:2" customHeight="0">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>CIE1808</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Amy Cole,Lincoln Predovic</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:2" customHeight="0">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>GEN1809</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Ofelia O'Conner Jr.,Wallace Kulas</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:2" customHeight="0">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>CIE1810</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Mireya Price,Theron Larson</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:2" customHeight="0">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>GEN2801</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Ofelia O'Conner Jr.,Wallace Kulas</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:2" customHeight="0">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>CIE2802</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Amy Cole,Lincoln Predovic</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:2" customHeight="0">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>CIE2803</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Keanu Kuhlman,Amy Cole,Dr. Camille Christiansen,Lincoln Predovic</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:2" customHeight="0">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>GEN2804</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Ofelia O'Conner Jr.,Wallace Kulas</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:2" customHeight="0">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>CIE2805</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Keanu Kuhlman,Dr. Camille Christiansen</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:2" customHeight="0">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>GEN2806</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Dr. Keanu Kuhlman,Dr. Camille Christiansen</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:2" customHeight="0">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>GEN2810</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Prof. Virgie Braun II,Miss Edna Schuppe</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:2" customHeight="0">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>CIE3801</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Amy Cole,Lexi Cassin,Lincoln Predovic,Araceli Hand</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:2" customHeight="0">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>CIE3804</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Lexi Cassin,Araceli Hand</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:2" customHeight="0">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>CIE4818</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Percival Greenholt,Marcus Hegmann</t>
         </is>
       </c>
     </row>

--- a/app/scripts/lectures/Profs.xlsx
+++ b/app/scripts/lectures/Profs.xlsx
@@ -81,7 +81,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Percival Greenholt,Prof. Virgie Braun II,Marcus Hegmann,Miss Edna Schuppe</t>
+          <t>Darwin Nicolas,Mr. Howard Willms II</t>
         </is>
       </c>
     </row>
@@ -93,7 +93,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Cortney Heller,Jayde Predovic I</t>
+          <t>Osvaldo Boyle PhD</t>
         </is>
       </c>
     </row>
@@ -105,7 +105,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Mireya Price,Theron Larson</t>
+          <t>Carissa Adams</t>
         </is>
       </c>
     </row>
@@ -117,7 +117,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Mireya Price,Theron Larson</t>
+          <t>Carissa Adams</t>
         </is>
       </c>
     </row>
@@ -129,7 +129,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Adah Hyatt,Miss Myriam Huel</t>
+          <t>Prof. Eladio Franecki</t>
         </is>
       </c>
     </row>
@@ -141,7 +141,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Cortney Heller,Jayde Predovic I</t>
+          <t>Osvaldo Boyle PhD</t>
         </is>
       </c>
     </row>
@@ -153,7 +153,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Cortney Heller,Jayde Predovic I</t>
+          <t>Osvaldo Boyle PhD</t>
         </is>
       </c>
     </row>
@@ -165,7 +165,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Adah Hyatt,Miss Myriam Huel</t>
+          <t>Prof. Eladio Franecki</t>
         </is>
       </c>
     </row>
@@ -177,7 +177,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Percival Greenholt,Marcus Hegmann</t>
+          <t>Darwin Nicolas</t>
         </is>
       </c>
     </row>
@@ -189,7 +189,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Danny Prohaska,Carroll Hirthe DVM</t>
+          <t>Dr. Yvonne Treutel PhD</t>
         </is>
       </c>
     </row>
@@ -201,7 +201,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Danny Prohaska,Carroll Hirthe DVM</t>
+          <t>Dr. Yvonne Treutel PhD</t>
         </is>
       </c>
     </row>
@@ -213,7 +213,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Adah Hyatt,Miss Myriam Huel</t>
+          <t>Prof. Eladio Franecki</t>
         </is>
       </c>
     </row>
@@ -225,7 +225,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Prof. Virgie Braun II,Miss Edna Schuppe</t>
+          <t>Mr. Howard Willms II</t>
         </is>
       </c>
     </row>
@@ -237,7 +237,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Lexi Cassin,Araceli Hand</t>
+          <t>Vernie Sporer</t>
         </is>
       </c>
     </row>
@@ -249,7 +249,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Danny Prohaska,Carroll Hirthe DVM</t>
+          <t>Dr. Yvonne Treutel PhD</t>
         </is>
       </c>
     </row>
@@ -261,7 +261,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Prof. Virgie Braun II,Miss Edna Schuppe</t>
+          <t>Mr. Howard Willms II</t>
         </is>
       </c>
     </row>
@@ -273,7 +273,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Amy Cole,Lincoln Predovic</t>
+          <t>Destinee Feest</t>
         </is>
       </c>
     </row>
@@ -285,7 +285,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Ofelia O'Conner Jr.,Wallace Kulas</t>
+          <t>Laisha Schultz</t>
         </is>
       </c>
     </row>
@@ -297,7 +297,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Mireya Price,Theron Larson</t>
+          <t>Carissa Adams</t>
         </is>
       </c>
     </row>
@@ -309,7 +309,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Ofelia O'Conner Jr.,Wallace Kulas</t>
+          <t>Laisha Schultz</t>
         </is>
       </c>
     </row>
@@ -321,7 +321,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>Amy Cole,Lincoln Predovic</t>
+          <t>Destinee Feest</t>
         </is>
       </c>
     </row>
@@ -333,7 +333,7 @@
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>Dr. Keanu Kuhlman,Amy Cole,Dr. Camille Christiansen,Lincoln Predovic</t>
+          <t>Maymie Haley,Destinee Feest</t>
         </is>
       </c>
     </row>
@@ -345,7 +345,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>Ofelia O'Conner Jr.,Wallace Kulas</t>
+          <t>Laisha Schultz</t>
         </is>
       </c>
     </row>
@@ -357,7 +357,7 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>Dr. Keanu Kuhlman,Dr. Camille Christiansen</t>
+          <t>Maymie Haley</t>
         </is>
       </c>
     </row>
@@ -369,7 +369,7 @@
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>Dr. Keanu Kuhlman,Dr. Camille Christiansen</t>
+          <t>Maymie Haley</t>
         </is>
       </c>
     </row>
@@ -381,7 +381,7 @@
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Prof. Virgie Braun II,Miss Edna Schuppe</t>
+          <t>Mr. Howard Willms II</t>
         </is>
       </c>
     </row>
@@ -393,7 +393,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>Amy Cole,Lexi Cassin,Lincoln Predovic,Araceli Hand</t>
+          <t>Destinee Feest,Vernie Sporer</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>Lexi Cassin,Araceli Hand</t>
+          <t>Vernie Sporer</t>
         </is>
       </c>
     </row>
@@ -417,7 +417,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>Percival Greenholt,Marcus Hegmann</t>
+          <t>Darwin Nicolas</t>
         </is>
       </c>
     </row>
